--- a/assets/Капустин_28-03-2025.xlsx
+++ b/assets/Капустин_28-03-2025.xlsx
@@ -65,7 +65,7 @@
     <t>Страна пребывания:</t>
   </si>
   <si>
-    <t>Кения</t>
+    <t>Марокко</t>
   </si>
   <si>
     <t>Цена путевки базовая:</t>
@@ -95,7 +95,7 @@
     <t>Полная стоимость тура:</t>
   </si>
   <si>
-    <t>3630 руб.</t>
+    <t>3430 руб.</t>
   </si>
   <si>
     <t>Дата оформления:</t>
@@ -579,7 +579,7 @@
         <v>7</v>
       </c>
       <c r="G6" s="2">
-        <v>8923</v>
+        <v>4955</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -682,7 +682,7 @@
       <c r="E15" s="4"/>
       <c r="F15" s="5"/>
       <c r="G15" s="3">
-        <v>3500</v>
+        <v>3300</v>
       </c>
       <c r="H15" s="4"/>
       <c r="I15" s="5"/>
